--- a/F_dataset/ChEMBL/ITK/ITK_preprocessing/ITK_test.xlsx
+++ b/F_dataset/ChEMBL/ITK/ITK_preprocessing/ITK_test.xlsx
@@ -664,7 +664,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61A03C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291265E0&gt;</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -777,7 +777,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61A11C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829126C00&gt;</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -890,7 +890,7 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61A0120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829125C40&gt;</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61A1930&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291258C0&gt;</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
@@ -1116,7 +1116,7 @@
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61A1770&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829125850&gt;</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1229,7 +1229,7 @@
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61A0510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291243C0&gt;</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61A1CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829124C10&gt;</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61A3450&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829126A40&gt;</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1568,7 +1568,7 @@
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743C7B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291261F0&gt;</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
@@ -1681,7 +1681,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743C820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291249E0&gt;</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1794,7 +1794,7 @@
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743E420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829124820&gt;</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743FC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829124EB0&gt;</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2020,7 +2020,7 @@
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743DB60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291259A0&gt;</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
@@ -2133,7 +2133,7 @@
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743E500&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829125BD0&gt;</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
@@ -2246,7 +2246,7 @@
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743CC80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829125B60&gt;</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
@@ -2359,7 +2359,7 @@
       </c>
       <c r="X17" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743CF90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829125770&gt;</t>
         </is>
       </c>
       <c r="Y17" t="inlineStr">
@@ -2472,7 +2472,7 @@
       </c>
       <c r="X18" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743D850&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829125EE0&gt;</t>
         </is>
       </c>
       <c r="Y18" t="inlineStr">
@@ -2585,7 +2585,7 @@
       </c>
       <c r="X19" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743FD80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829124040&gt;</t>
         </is>
       </c>
       <c r="Y19" t="inlineStr">
@@ -2698,7 +2698,7 @@
       </c>
       <c r="X20" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743E260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829124DD0&gt;</t>
         </is>
       </c>
       <c r="Y20" t="inlineStr">
@@ -2811,7 +2811,7 @@
       </c>
       <c r="X21" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743FCA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829125380&gt;</t>
         </is>
       </c>
       <c r="Y21" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="X22" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743CEB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291263B0&gt;</t>
         </is>
       </c>
       <c r="Y22" t="inlineStr">
@@ -3037,7 +3037,7 @@
       </c>
       <c r="X23" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743F6F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829124430&gt;</t>
         </is>
       </c>
       <c r="Y23" t="inlineStr">
@@ -3150,7 +3150,7 @@
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743C9E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829124190&gt;</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -3263,7 +3263,7 @@
       </c>
       <c r="X25" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743E030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829124510&gt;</t>
         </is>
       </c>
       <c r="Y25" t="inlineStr">
@@ -3376,7 +3376,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743DE70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829125150&gt;</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -3489,7 +3489,7 @@
       </c>
       <c r="X27" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743FB50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829126500&gt;</t>
         </is>
       </c>
       <c r="Y27" t="inlineStr">
@@ -3602,7 +3602,7 @@
       </c>
       <c r="X28" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743D0E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829126260&gt;</t>
         </is>
       </c>
       <c r="Y28" t="inlineStr">
@@ -3715,7 +3715,7 @@
       </c>
       <c r="X29" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743E0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82914F450&gt;</t>
         </is>
       </c>
       <c r="Y29" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="X30" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743D3F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82914EC70&gt;</t>
         </is>
       </c>
       <c r="Y30" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="X31" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743CB30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82914FCA0&gt;</t>
         </is>
       </c>
       <c r="Y31" t="inlineStr">
@@ -4054,7 +4054,7 @@
       </c>
       <c r="X32" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743D4D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829106A40&gt;</t>
         </is>
       </c>
       <c r="Y32" t="inlineStr">
@@ -4167,7 +4167,7 @@
       </c>
       <c r="X33" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743FF40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829107610&gt;</t>
         </is>
       </c>
       <c r="Y33" t="inlineStr">
@@ -4280,7 +4280,7 @@
       </c>
       <c r="X34" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743DA10&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A33B3E0&gt;</t>
         </is>
       </c>
       <c r="Y34" t="inlineStr">
@@ -4393,7 +4393,7 @@
       </c>
       <c r="X35" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C743EA40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A33B760&gt;</t>
         </is>
       </c>
       <c r="Y35" t="inlineStr">
@@ -4506,7 +4506,7 @@
       </c>
       <c r="X36" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C619EB90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A33B1B0&gt;</t>
         </is>
       </c>
       <c r="Y36" t="inlineStr">
@@ -4619,7 +4619,7 @@
       </c>
       <c r="X37" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61D11C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A33B290&gt;</t>
         </is>
       </c>
       <c r="Y37" t="inlineStr">
@@ -4732,7 +4732,7 @@
       </c>
       <c r="X38" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61D2030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8290F4660&gt;</t>
         </is>
       </c>
       <c r="Y38" t="inlineStr">
@@ -4845,7 +4845,7 @@
       </c>
       <c r="X39" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C748C820&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8290F65E0&gt;</t>
         </is>
       </c>
       <c r="Y39" t="inlineStr">
@@ -4958,7 +4958,7 @@
       </c>
       <c r="X40" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B51C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913AC70&gt;</t>
         </is>
       </c>
       <c r="Y40" t="inlineStr">
@@ -5071,7 +5071,7 @@
       </c>
       <c r="X41" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B55B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913A9D0&gt;</t>
         </is>
       </c>
       <c r="Y41" t="inlineStr">
@@ -5184,7 +5184,7 @@
       </c>
       <c r="X42" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913BE60&gt;</t>
         </is>
       </c>
       <c r="Y42" t="inlineStr">
@@ -5297,7 +5297,7 @@
       </c>
       <c r="X43" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4BA0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913BCA0&gt;</t>
         </is>
       </c>
       <c r="Y43" t="inlineStr">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="X44" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B57E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913BBC0&gt;</t>
         </is>
       </c>
       <c r="Y44" t="inlineStr">
@@ -5523,7 +5523,7 @@
       </c>
       <c r="X45" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B63B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913B0D0&gt;</t>
         </is>
       </c>
       <c r="Y45" t="inlineStr">
@@ -5636,7 +5636,7 @@
       </c>
       <c r="X46" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6B20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913BD80&gt;</t>
         </is>
       </c>
       <c r="Y46" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="X47" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6B90&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913AEA0&gt;</t>
         </is>
       </c>
       <c r="Y47" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82913AC00&gt;</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -5975,7 +5975,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5CB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829139620&gt;</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -5987,19 +5987,19 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>CHEMBL2179826</t>
+          <t>CHEMBL2179831</t>
         </is>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>408.46</v>
+        <v>350.39</v>
       </c>
       <c r="D50" t="n">
-        <v>2.44</v>
+        <v>1.21</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>C=CC(=O)N1CCC[C@@H](n2nc(-c3ccc(OC)c(OC)c3)c3c(N)ncnc32)C1</t>
+          <t>C=CC(=O)N1CCC[C@@H](n2nc(-c3cncnc3)c3c(N)ncnc32)C1</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
@@ -6018,7 +6018,7 @@
         </is>
       </c>
       <c r="I50" t="n">
-        <v>21321</v>
+        <v>10068</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
@@ -6088,7 +6088,7 @@
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C74C9B60&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829135620&gt;</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -6100,19 +6100,19 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>CHEMBL2179831</t>
+          <t>CHEMBL2180204</t>
         </is>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>350.39</v>
+        <v>416.41</v>
       </c>
       <c r="D51" t="n">
-        <v>1.21</v>
+        <v>3.44</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>C=CC(=O)N1CCC[C@@H](n2nc(-c3cncnc3)c3c(N)ncnc32)C1</t>
+          <t>C=CC(=O)N1CCC[C@@H](n2nc(-c3cccc(C(F)(F)F)c3)c3c(N)ncnc32)C1</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -6131,7 +6131,7 @@
         </is>
       </c>
       <c r="I51" t="n">
-        <v>10068</v>
+        <v>17744</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
@@ -6201,7 +6201,7 @@
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C74C91C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A304970&gt;</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -6213,19 +6213,19 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>CHEMBL440046</t>
+          <t>CHEMBL205585</t>
         </is>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>537.71</v>
+        <v>580.74</v>
       </c>
       <c r="D52" t="n">
-        <v>4.37</v>
+        <v>4.02</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>CC(=O)N1CCN(C(=O)c2ccc(C)c(CSc3cnc(NC(=O)c4ccc(N(C)C)cc4)s3)c2)CC1</t>
+          <t>CC(=O)Nc1cc(CSc2cnc(NC(=O)c3ccc(N(C)C)cc3)s2)cc(C(=O)N2CCN(C(C)=O)CC2)c1</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -6244,7 +6244,7 @@
         </is>
       </c>
       <c r="I52" t="n">
-        <v>15000</v>
+        <v>14000</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
@@ -6314,7 +6314,7 @@
       </c>
       <c r="X52" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C74C8970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3044A0&gt;</t>
         </is>
       </c>
       <c r="Y52" t="inlineStr">
@@ -6427,7 +6427,7 @@
       </c>
       <c r="X53" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C74C9A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A304040&gt;</t>
         </is>
       </c>
       <c r="Y53" t="inlineStr">
@@ -6439,19 +6439,19 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>CHEMBL2180200</t>
+          <t>CHEMBL2179813</t>
         </is>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>410.5</v>
+        <v>473.58</v>
       </c>
       <c r="D54" t="n">
-        <v>2.16</v>
+        <v>3.49</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>C=CC(=O)N1CCC[C@@H](n2nc(-c3ccc([S+](C)[O-])cc3)c3c(N)ncnc32)C1</t>
+          <t>C=CC(=O)N1CCC[C@@H](n2nc(-c3cccc(C(=O)NC4CCCCC4)c3)c3c(N)ncnc32)C1</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
@@ -6470,7 +6470,7 @@
         </is>
       </c>
       <c r="I54" t="n">
-        <v>21883</v>
+        <v>10880</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C74C9230&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3047B0&gt;</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -6552,19 +6552,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>CHEMBL2179813</t>
+          <t>CHEMBL2179824</t>
         </is>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>473.58</v>
+        <v>432.41</v>
       </c>
       <c r="D55" t="n">
-        <v>3.49</v>
+        <v>3.32</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>C=CC(=O)N1CCC[C@@H](n2nc(-c3cccc(C(=O)NC4CCCCC4)c3)c3c(N)ncnc32)C1</t>
+          <t>C=CC(=O)N1CCC[C@@H](n2nc(-c3ccc(OC(F)(F)F)cc3)c3c(N)ncnc32)C1</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -6583,7 +6583,7 @@
         </is>
       </c>
       <c r="I55" t="n">
-        <v>10880</v>
+        <v>21417</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
@@ -6653,7 +6653,7 @@
       </c>
       <c r="X55" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C74C8430&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3042E0&gt;</t>
         </is>
       </c>
       <c r="Y55" t="inlineStr">
@@ -6665,19 +6665,19 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CHEMBL2179824</t>
+          <t>CHEMBL205572</t>
         </is>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>432.41</v>
+        <v>537.71</v>
       </c>
       <c r="D56" t="n">
-        <v>3.32</v>
+        <v>4.37</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>C=CC(=O)N1CCC[C@@H](n2nc(-c3ccc(OC(F)(F)F)cc3)c3c(N)ncnc32)C1</t>
+          <t>CC(=O)N1CCN(C(=O)c2cccc(CSc3cnc(NC(=O)c4ccc(N(C)C)cc4)s3)c2C)CC1</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -6696,16 +6696,16 @@
         </is>
       </c>
       <c r="I56" t="n">
-        <v>21417</v>
+        <v>37000</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>CHEMBL2185029</t>
+          <t>CHEMBL861556</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
         <is>
-          <t>Covalent inhibition of ITK in presence of 1 mM ATP</t>
+          <t>Inhibition of Itk</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
@@ -6720,7 +6720,7 @@
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Homo sapiens</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>CHEMBL2177048</t>
+          <t>CHEMBL1147005</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
@@ -6755,18 +6755,18 @@
       </c>
       <c r="U56" t="inlineStr">
         <is>
-          <t>J Med Chem</t>
+          <t>Bioorg Med Chem Lett</t>
         </is>
       </c>
       <c r="V56" t="n">
-        <v>2012</v>
+        <v>2006</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C619EC70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3046D0&gt;</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -6778,24 +6778,24 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>CHEMBL2179830</t>
+          <t>CHEMBL1909407</t>
         </is>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>378.44</v>
+        <v>374.85</v>
       </c>
       <c r="D57" t="n">
-        <v>1.86</v>
+        <v>2.65</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>C=CC(=O)N1CCC[C@@H](n2nc(-c3ccc(NC)nc3)c3c(N)ncnc32)C1</t>
+          <t>Nc1nccc(-c2c(-c3ccc(F)cc3)ncn2C2CCNCC2)n1</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>IC50</t>
+          <t>Inhibition</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -6805,20 +6805,20 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>nM</t>
+          <t>%</t>
         </is>
       </c>
       <c r="I57" t="n">
-        <v>10324</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>CHEMBL2185029</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>Covalent inhibition of ITK in presence of 1 mM ATP</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
@@ -6858,28 +6858,22 @@
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>CHEMBL2177048</t>
+          <t>CHEMBL1961873</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>Scientific Literature</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>J Med Chem</t>
-        </is>
-      </c>
-      <c r="V57" t="n">
-        <v>2012</v>
-      </c>
+          <t>GSK Published Kinase Inhibitor Set</t>
+        </is>
+      </c>
+      <c r="U57" t="inlineStr"/>
+      <c r="V57" t="inlineStr"/>
       <c r="W57" t="n">
         <v>0</v>
       </c>
       <c r="X57" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61BBC30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A304660&gt;</t>
         </is>
       </c>
       <c r="Y57" t="inlineStr">
@@ -6891,23 +6885,23 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>CHEMBL522709</t>
+          <t>CHEMBL1909368</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>GSK-317315A</t>
+          <t>GW683134A</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>461.47</v>
+        <v>575.91</v>
       </c>
       <c r="D58" t="n">
-        <v>5.35</v>
+        <v>7</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>COc1ccc2ncn(-c3cc(O[C@H](C)c4ccccc4C(F)(F)F)c(C(N)=O)s3)c2c1</t>
+          <t>O=C(Nc1ccc(Oc2ccc3[nH]c(NC(=O)c4ccco4)nc3c2)cc1)Nc1cc(C(F)(F)F)ccc1F</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
@@ -6926,7 +6920,7 @@
         </is>
       </c>
       <c r="I58" t="n">
-        <v>1.39</v>
+        <v>0.22</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
@@ -6990,7 +6984,7 @@
       </c>
       <c r="X58" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61BB8B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A304350&gt;</t>
         </is>
       </c>
       <c r="Y58" t="inlineStr">
@@ -7002,23 +6996,23 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>CHEMBL205798</t>
+          <t>CHEMBL480371</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>GW703087X</t>
+          <t>GW853609X</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>486.93</v>
+        <v>496.31</v>
       </c>
       <c r="D59" t="n">
-        <v>5.95</v>
+        <v>5.55</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>CC(=O)Nc1cccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)c1</t>
+          <t>NC(=O)c1sc(-n2cnc3cc(C(F)(F)F)ccc32)cc1OCc1ccccc1Br</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
@@ -7037,7 +7031,7 @@
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2.79</v>
+        <v>1.42</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
@@ -7101,7 +7095,7 @@
       </c>
       <c r="X59" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61BB5A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A304270&gt;</t>
         </is>
       </c>
       <c r="Y59" t="inlineStr">
@@ -7113,19 +7107,23 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>CHEMBL1909407</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr"/>
+          <t>CHEMBL1909389</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>GW574782A</t>
+        </is>
+      </c>
       <c r="C60" t="n">
-        <v>374.85</v>
+        <v>633.09</v>
       </c>
       <c r="D60" t="n">
-        <v>2.65</v>
+        <v>6.37</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Nc1nccc(-c2c(-c3ccc(F)cc3)ncn2C2CCNCC2)n1</t>
+          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)c(C(F)(F)F)c4)c3c2)o1</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
@@ -7144,16 +7142,16 @@
         </is>
       </c>
       <c r="I60" t="n">
-        <v>-0.5600000000000001</v>
+        <v>2.16</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
@@ -7208,7 +7206,7 @@
       </c>
       <c r="X60" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61BB060&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A3040B0&gt;</t>
         </is>
       </c>
       <c r="Y60" t="inlineStr">
@@ -7220,23 +7218,23 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>CHEMBL518953</t>
+          <t>CHEMBL1909349</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>GSK-1023156A</t>
+          <t>GSK-1007102B</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>428.31</v>
+        <v>561.52</v>
       </c>
       <c r="D61" t="n">
-        <v>4.53</v>
+        <v>2.28</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>NC(=O)c1sc(-n2cnc3ccccc32)cc1OCc1ccccc1Br</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(O[C@@H](CN)c3ccccc3)cc21</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
@@ -7255,16 +7253,16 @@
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1.35</v>
+        <v>0.91</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
@@ -7319,7 +7317,7 @@
       </c>
       <c r="X61" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61BA730&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A304120&gt;</t>
         </is>
       </c>
       <c r="Y61" t="inlineStr">
@@ -7331,23 +7329,23 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>CHEMBL1909389</t>
+          <t>CHEMBL379093</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>GW574782A</t>
+          <t>GW651576X</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>633.09</v>
+        <v>429.88</v>
       </c>
       <c r="D62" t="n">
-        <v>6.37</v>
+        <v>5.99</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)c(C(F)(F)F)c4)c3c2)o1</t>
+          <t>Fc1cccc(COc2ccc(Nc3ncncc3C#Cc3ccccc3)cc2Cl)c1</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -7366,16 +7364,16 @@
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2.16</v>
+        <v>1.58</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
@@ -7430,7 +7428,7 @@
       </c>
       <c r="X62" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61BA5E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A304820&gt;</t>
         </is>
       </c>
       <c r="Y62" t="inlineStr">
@@ -7442,23 +7440,23 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>CHEMBL1909349</t>
+          <t>CHEMBL588025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>GSK-1007102B</t>
+          <t>GW770249A</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>561.52</v>
+        <v>467.81</v>
       </c>
       <c r="D63" t="n">
-        <v>2.28</v>
+        <v>5.27</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)nc(O[C@@H](CN)c3ccccc3)cc21</t>
+          <t>Nc1ncnc2occ(-c3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)c12</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -7477,16 +7475,16 @@
         </is>
       </c>
       <c r="I63" t="n">
-        <v>0.91</v>
+        <v>2.22</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -7541,7 +7539,7 @@
       </c>
       <c r="X63" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B9C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A304430&gt;</t>
         </is>
       </c>
       <c r="Y63" t="inlineStr">
@@ -7553,23 +7551,19 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>CHEMBL379093</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>GW651576X</t>
-        </is>
-      </c>
+          <t>CHEMBL160333</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>429.88</v>
+        <v>349.17</v>
       </c>
       <c r="D64" t="n">
-        <v>5.99</v>
+        <v>3.18</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Fc1cccc(COc2ccc(Nc3ncncc3C#Cc3ccccc3)cc2Cl)c1</t>
+          <t>O=C1NC(=O)C(c2cccc(Cl)c2)=C1Nc1ccc(O)c(Cl)c1</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -7588,16 +7582,16 @@
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1.58</v>
+        <v>1.28</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -7652,7 +7646,7 @@
       </c>
       <c r="X64" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B98C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A304740&gt;</t>
         </is>
       </c>
       <c r="Y64" t="inlineStr">
@@ -7664,23 +7658,23 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CHEMBL517123</t>
+          <t>CHEMBL365663</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>GSK-182497A</t>
+          <t>GW780159X</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>566.0599999999999</v>
+        <v>338.82</v>
       </c>
       <c r="D65" t="n">
-        <v>5.59</v>
+        <v>4.66</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>CN(C)C(=O)O[C@H]1CN[C@H](C#Cc2cc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3s2)C1</t>
+          <t>Nc1nc(-c2cccc(Cl)c2)c(-c2ccc3ncccc3n2)s1</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -7699,16 +7693,16 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1.42</v>
+        <v>1.66</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
@@ -7763,7 +7757,7 @@
       </c>
       <c r="X65" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F82A304510&gt;</t>
         </is>
       </c>
       <c r="Y65" t="inlineStr">
@@ -7775,23 +7769,23 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>CHEMBL588025</t>
+          <t>CHEMBL516248</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>GW770249A</t>
+          <t>GW804482X</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>467.81</v>
+        <v>379.44</v>
       </c>
       <c r="D66" t="n">
-        <v>5.27</v>
+        <v>3.77</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Nc1ncnc2occ(-c3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)c12</t>
+          <t>COc1cccc(COc2cc(-n3cnc4ccccc43)sc2C(N)=O)c1</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
@@ -7810,16 +7804,16 @@
         </is>
       </c>
       <c r="I66" t="n">
-        <v>2.22</v>
+        <v>0.54</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
@@ -7874,7 +7868,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8A50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145230&gt;</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -7886,23 +7880,23 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>CHEMBL305477</t>
+          <t>CHEMBL303687</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>GW829874X</t>
+          <t>GW829877X</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>374.4</v>
+        <v>358.41</v>
       </c>
       <c r="D67" t="n">
-        <v>3.28</v>
+        <v>3.58</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>COc1cccc(/C=N/Nc2ncnc3c2cnn3-c2cccc(OC)c2)c1</t>
+          <t>COc1cccc(-n2ncc3c(N/N=C/c4ccc(C)cc4)ncnc32)c1</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -7921,7 +7915,7 @@
         </is>
       </c>
       <c r="I67" t="n">
-        <v>0.35</v>
+        <v>2.28</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -7985,7 +7979,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8970&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291460A0&gt;</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -7997,23 +7991,23 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CHEMBL427159</t>
+          <t>CHEMBL1909373</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>GW827396X</t>
+          <t>GW701427A</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>430.42</v>
+        <v>497.9</v>
       </c>
       <c r="D68" t="n">
         <v>4.88</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc(F)c(F)c3)n2)cc1</t>
+          <t>COC(=O)Nc1nc2cc(Oc3ccc(NC(=O)Nc4cccc(C(=O)O)c4)cc3)ccc2[nH]1</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -8032,16 +8026,16 @@
         </is>
       </c>
       <c r="I68" t="n">
-        <v>0.92</v>
+        <v>-2.68</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K68" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
@@ -8096,7 +8090,7 @@
       </c>
       <c r="X68" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B85F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145BD0&gt;</t>
         </is>
       </c>
       <c r="Y68" t="inlineStr">
@@ -8108,23 +8102,23 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CHEMBL220243</t>
+          <t>CHEMBL473629</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>GW406731X</t>
+          <t>GSK-204925A</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>283.33</v>
+        <v>423.49</v>
       </c>
       <c r="D69" t="n">
-        <v>3.36</v>
+        <v>3.82</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>COC(=O)c1cncc(/C=C/c2c(C)cc(O)cc2C)c1</t>
+          <t>COc1cc2ncn(-c3cc(OCCc4ccccc4)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -8143,16 +8137,16 @@
         </is>
       </c>
       <c r="I69" t="n">
-        <v>1.55</v>
+        <v>1.33</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
@@ -8207,7 +8201,7 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B82E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144120&gt;</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -8219,23 +8213,19 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>CHEMBL476351</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>GW775608X</t>
-        </is>
-      </c>
+          <t>CHEMBL273611</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>470.57</v>
+        <v>459.48</v>
       </c>
       <c r="D70" t="n">
-        <v>4.29</v>
+        <v>4.59</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)c2ccnc(N3CCOCC3)c2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
+          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc4c(c3)OCO4)n2)cc1</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
@@ -8254,16 +8244,16 @@
         </is>
       </c>
       <c r="I70" t="n">
-        <v>0.93</v>
+        <v>1.6</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
@@ -8318,7 +8308,7 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8890&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146FF0&gt;</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
@@ -8330,23 +8320,23 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>CHEMBL303687</t>
+          <t>CHEMBL1794067</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>GW829877X</t>
+          <t>GSK-978744A</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>358.41</v>
+        <v>487.97</v>
       </c>
       <c r="D71" t="n">
-        <v>3.58</v>
+        <v>3.71</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>COc1cccc(-n2ncc3c(N/N=C/c4ccc(C)cc4)ncnc32)c1</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC[C@@H](O)CO)cc32)sc1C(N)=O)c1ccccc1Cl</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -8365,16 +8355,16 @@
         </is>
       </c>
       <c r="I71" t="n">
-        <v>2.28</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
@@ -8429,7 +8419,7 @@
       </c>
       <c r="X71" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B87B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146810&gt;</t>
         </is>
       </c>
       <c r="Y71" t="inlineStr">
@@ -8441,23 +8431,23 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>CHEMBL1909373</t>
+          <t>CHEMBL66292</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>GW701427A</t>
+          <t>PYRAZOLOPYRIMIDINE 2</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>497.9</v>
+        <v>422.47</v>
       </c>
       <c r="D72" t="n">
-        <v>4.88</v>
+        <v>2.67</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>COC(=O)Nc1nc2cc(Oc3ccc(NC(=O)Nc4cccc(C(=O)O)c4)cc3)ccc2[nH]1</t>
+          <t>COc1cccc(-n2ncc3c(N/N=C/c4ccc(S(C)(=O)=O)cc4)ncnc32)c1</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -8476,16 +8466,16 @@
         </is>
       </c>
       <c r="I72" t="n">
-        <v>-2.68</v>
+        <v>-2.33</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
@@ -8540,7 +8530,7 @@
       </c>
       <c r="X72" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146AB0&gt;</t>
         </is>
       </c>
       <c r="Y72" t="inlineStr">
@@ -8552,23 +8542,23 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>CHEMBL516908</t>
+          <t>CHEMBL365248</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>GW796920X</t>
+          <t>GW810372X</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>362.47</v>
+        <v>402.34</v>
       </c>
       <c r="D73" t="n">
-        <v>4.54</v>
+        <v>3.84</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Cc1ccc(NC(=O)CC2CC2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
+          <t>COc1ccc2c(-c3ccnc(Nc4cccc(OC(F)(F)F)c4)n3)cnn2n1</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
@@ -8587,16 +8577,16 @@
         </is>
       </c>
       <c r="I73" t="n">
-        <v>1.47</v>
+        <v>1.46</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
@@ -8651,7 +8641,7 @@
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145000&gt;</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
@@ -8663,23 +8653,23 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>CHEMBL176553</t>
+          <t>CHEMBL69757</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>GW631581B</t>
+          <t>GW817394X</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>296.33</v>
+        <v>362.37</v>
       </c>
       <c r="D74" t="n">
-        <v>4.1</v>
+        <v>3.41</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>COc1cc(Nc2ncc(-c3ccccc3)o2)cc(OC)c1</t>
+          <t>COc1cccc(-n2ncc3c(N/N=C/c4cccc(F)c4)ncnc32)c1</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -8698,7 +8688,7 @@
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3.63</v>
+        <v>-2.13</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
@@ -8762,7 +8752,7 @@
       </c>
       <c r="X74" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61BB1B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147760&gt;</t>
         </is>
       </c>
       <c r="Y74" t="inlineStr">
@@ -8774,19 +8764,23 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CHEMBL273611</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr"/>
+          <t>CHEMBL1794066</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>GSK-619487A</t>
+        </is>
+      </c>
       <c r="C75" t="n">
-        <v>459.48</v>
+        <v>525.49</v>
       </c>
       <c r="D75" t="n">
-        <v>4.59</v>
+        <v>1.34</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc4c(c3)OCO4)n2)cc1</t>
+          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -8805,16 +8799,16 @@
         </is>
       </c>
       <c r="I75" t="n">
-        <v>1.6</v>
+        <v>2.09</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
@@ -8869,7 +8863,7 @@
       </c>
       <c r="X75" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61BA9D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145540&gt;</t>
         </is>
       </c>
       <c r="Y75" t="inlineStr">
@@ -8881,23 +8875,23 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>CHEMBL514261</t>
+          <t>CHEMBL381604</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>GSK-1819799A</t>
+          <t>GW799251X</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>519.58</v>
+        <v>446.87</v>
       </c>
       <c r="D76" t="n">
-        <v>4.82</v>
+        <v>4.36</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>COc1cc(N2CCN(C(C)C)CC2)ccc1Nc1nc(Nc2cccc(F)c2C(=O)O)c2cc[nH]c2n1</t>
+          <t>Nc1nccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)n1</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
@@ -8916,7 +8910,7 @@
         </is>
       </c>
       <c r="I76" t="n">
-        <v>5.92</v>
+        <v>3.09</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
@@ -8980,7 +8974,7 @@
       </c>
       <c r="X76" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61BA880&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291444A0&gt;</t>
         </is>
       </c>
       <c r="Y76" t="inlineStr">
@@ -8992,19 +8986,19 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>CHEMBL103098</t>
+          <t>CHEMBL397570</t>
         </is>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>356.41</v>
+        <v>300.36</v>
       </c>
       <c r="D77" t="n">
-        <v>2.23</v>
+        <v>3.89</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>NS(=O)(=O)c1ccc(-c2ccc3c(NC(=O)C4CC4)n[nH]c3c2)cc1</t>
+          <t>N#Cc1c(NC(=O)c2ccc(F)cc2)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -9023,16 +9017,16 @@
         </is>
       </c>
       <c r="I77" t="n">
-        <v>6.67</v>
+        <v>0.64</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
@@ -9087,7 +9081,7 @@
       </c>
       <c r="X77" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61BA6C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146030&gt;</t>
         </is>
       </c>
       <c r="Y77" t="inlineStr">
@@ -9099,23 +9093,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>CHEMBL66292</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>PYRAZOLOPYRIMIDINE 2</t>
-        </is>
-      </c>
+          <t>CHEMBL1909400</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>422.47</v>
+        <v>557.55</v>
       </c>
       <c r="D78" t="n">
-        <v>2.67</v>
+        <v>5.48</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>COc1cccc(-n2ncc3c(N/N=C/c4ccc(S(C)(=O)=O)cc4)ncnc32)c1</t>
+          <t>Cc1cccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)c1C</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -9134,16 +9124,16 @@
         </is>
       </c>
       <c r="I78" t="n">
-        <v>-2.33</v>
+        <v>1.92</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K78" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
@@ -9198,7 +9188,7 @@
       </c>
       <c r="X78" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61BA0A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291451C0&gt;</t>
         </is>
       </c>
       <c r="Y78" t="inlineStr">
@@ -9210,23 +9200,23 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>CHEMBL69757</t>
+          <t>CHEMBL1909387</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>GW817394X</t>
+          <t>GW567808A</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>362.37</v>
+        <v>633.09</v>
       </c>
       <c r="D79" t="n">
-        <v>3.41</v>
+        <v>6.37</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>COc1cccc(-n2ncc3c(N/N=C/c4cccc(F)c4)ncnc32)c1</t>
+          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5cccc(C(F)(F)F)c5)cc4)c3c2)o1</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
@@ -9245,7 +9235,7 @@
         </is>
       </c>
       <c r="I79" t="n">
-        <v>-2.13</v>
+        <v>1.4</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
@@ -9309,7 +9299,7 @@
       </c>
       <c r="X79" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61BA030&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291440B0&gt;</t>
         </is>
       </c>
       <c r="Y79" t="inlineStr">
@@ -9321,23 +9311,23 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>CHEMBL1794066</t>
+          <t>CHEMBL362155</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>GSK-619487A</t>
+          <t>GW827102X</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>525.49</v>
+        <v>490.45</v>
       </c>
       <c r="D80" t="n">
-        <v>1.34</v>
+        <v>5.39</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CCn1c(-c2nonc2N)nc2c(C#CC(C)(C)O)ncc(OC3CCNCC3)c21</t>
+          <t>FC(F)(F)c1cccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc4c(c3)OCCO4)n2)c1</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
@@ -9356,7 +9346,7 @@
         </is>
       </c>
       <c r="I80" t="n">
-        <v>2.09</v>
+        <v>2.97</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
@@ -9420,7 +9410,7 @@
       </c>
       <c r="X80" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B9EE0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291463B0&gt;</t>
         </is>
       </c>
       <c r="Y80" t="inlineStr">
@@ -9432,23 +9422,23 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>CHEMBL381604</t>
+          <t>CHEMBL318728</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>GW799251X</t>
+          <t>GW549390X</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>446.87</v>
+        <v>236.27</v>
       </c>
       <c r="D81" t="n">
-        <v>4.36</v>
+        <v>4.09</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Nc1nccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)n1</t>
+          <t>c1ccc(Nc2ncc(-c3ccccc3)o2)cc1</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -9467,16 +9457,16 @@
         </is>
       </c>
       <c r="I81" t="n">
-        <v>3.09</v>
+        <v>0.38</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
@@ -9531,7 +9521,7 @@
       </c>
       <c r="X81" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8F20&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145D90&gt;</t>
         </is>
       </c>
       <c r="Y81" t="inlineStr">
@@ -9543,19 +9533,23 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>CHEMBL1909400</t>
-        </is>
-      </c>
-      <c r="B82" t="inlineStr"/>
+          <t>CHEMBL1909364</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>GW589961A</t>
+        </is>
+      </c>
       <c r="C82" t="n">
-        <v>557.55</v>
+        <v>488.33</v>
       </c>
       <c r="D82" t="n">
-        <v>5.48</v>
+        <v>5.83</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Cc1cccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)c1C</t>
+          <t>COC(=O)Nc1nc2ccc(Oc3ccc(NC(=O)Nc4cccc(Cl)c4)cc3)cc2[nH]1</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -9574,7 +9568,7 @@
         </is>
       </c>
       <c r="I82" t="n">
-        <v>1.92</v>
+        <v>0.42</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
@@ -9638,7 +9632,7 @@
       </c>
       <c r="X82" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8CF0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147A70&gt;</t>
         </is>
       </c>
       <c r="Y82" t="inlineStr">
@@ -9650,23 +9644,23 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>CHEMBL218970</t>
+          <t>CHEMBL1794060</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>GW445017X</t>
+          <t>GW575533A</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>272.74</v>
+        <v>332.79</v>
       </c>
       <c r="D83" t="n">
-        <v>3.27</v>
+        <v>4.1</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>CNC(=O)c1cncc(/C=C/c2ccccc2Cl)c1</t>
+          <t>COc1ccc(Nc2ncc(-c3ccccc3)o2)cc1OC</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
@@ -9685,7 +9679,7 @@
         </is>
       </c>
       <c r="I83" t="n">
-        <v>2.43</v>
+        <v>3.7</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
@@ -9749,7 +9743,7 @@
       </c>
       <c r="X83" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144820&gt;</t>
         </is>
       </c>
       <c r="Y83" t="inlineStr">
@@ -9761,23 +9755,23 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>CHEMBL188794</t>
+          <t>CHEMBL384407</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>GW829115X</t>
+          <t>GW616030X</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>496.88</v>
+        <v>620.11</v>
       </c>
       <c r="D84" t="n">
-        <v>6.28</v>
+        <v>6.38</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>COc1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc(Cl)c(C(F)(F)F)c3)n2)cc1</t>
+          <t>CS(=O)(=O)CCN(CC#N)Cc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3c2)o1</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
@@ -9796,16 +9790,16 @@
         </is>
       </c>
       <c r="I84" t="n">
-        <v>0.9399999999999999</v>
+        <v>-3.44</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L84" t="inlineStr">
@@ -9860,7 +9854,7 @@
       </c>
       <c r="X84" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291478B0&gt;</t>
         </is>
       </c>
       <c r="Y84" t="inlineStr">
@@ -9872,23 +9866,23 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>CHEMBL362155</t>
+          <t>CHEMBL1909392</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>GW827102X</t>
+          <t>GW580496A</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>490.45</v>
+        <v>643.99</v>
       </c>
       <c r="D85" t="n">
-        <v>5.39</v>
+        <v>6.11</v>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>FC(F)(F)c1cccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc4c(c3)OCCO4)n2)c1</t>
+          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)c(Br)c4)c3c2)o1</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
@@ -9907,16 +9901,16 @@
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2.97</v>
+        <v>-4.12</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K85" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L85" t="inlineStr">
@@ -9971,7 +9965,7 @@
       </c>
       <c r="X85" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B80B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291477D0&gt;</t>
         </is>
       </c>
       <c r="Y85" t="inlineStr">
@@ -9983,23 +9977,19 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>CHEMBL384407</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>GW616030X</t>
-        </is>
-      </c>
+          <t>CHEMBL13972</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>620.11</v>
+        <v>440.48</v>
       </c>
       <c r="D86" t="n">
-        <v>6.38</v>
+        <v>4.73</v>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)CCN(CC#N)Cc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3c2)o1</t>
+          <t>N#Cc1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
@@ -10018,7 +10008,7 @@
         </is>
       </c>
       <c r="I86" t="n">
-        <v>-3.44</v>
+        <v>0.22</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
@@ -10082,7 +10072,7 @@
       </c>
       <c r="X86" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8740&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146180&gt;</t>
         </is>
       </c>
       <c r="Y86" t="inlineStr">
@@ -10094,23 +10084,19 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>CHEMBL1909392</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>GW580496A</t>
-        </is>
-      </c>
+          <t>CHEMBL14014</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>643.99</v>
+        <v>433.46</v>
       </c>
       <c r="D87" t="n">
-        <v>6.11</v>
+        <v>5</v>
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)CCNCc1ccc(-c2ccc3ncnc(Nc4ccc(OCc5ccccc5)c(Br)c4)c3c2)o1</t>
+          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3cccc(F)c3)n2)cc1</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
@@ -10129,7 +10115,7 @@
         </is>
       </c>
       <c r="I87" t="n">
-        <v>-4.12</v>
+        <v>2.54</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
@@ -10193,7 +10179,7 @@
       </c>
       <c r="X87" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B86D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145690&gt;</t>
         </is>
       </c>
       <c r="Y87" t="inlineStr">
@@ -10205,19 +10191,23 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>CHEMBL13972</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr"/>
+          <t>CHEMBL233001</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>GW620972X</t>
+        </is>
+      </c>
       <c r="C88" t="n">
-        <v>440.48</v>
+        <v>332.43</v>
       </c>
       <c r="D88" t="n">
-        <v>4.73</v>
+        <v>4.9</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>N#Cc1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
+          <t>N#Cc1c(NC(=O)c2cccc3ccccc23)sc2c1CCCC2</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
@@ -10236,7 +10226,7 @@
         </is>
       </c>
       <c r="I88" t="n">
-        <v>0.22</v>
+        <v>1.28</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
@@ -10300,7 +10290,7 @@
       </c>
       <c r="X88" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8270&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147C30&gt;</t>
         </is>
       </c>
       <c r="Y88" t="inlineStr">
@@ -10312,19 +10302,23 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>CHEMBL14014</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr"/>
+          <t>CHEMBL205765</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>GW794726X</t>
+        </is>
+      </c>
       <c r="C89" t="n">
-        <v>433.46</v>
+        <v>487.92</v>
       </c>
       <c r="D89" t="n">
-        <v>5</v>
+        <v>5.34</v>
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3cccc(F)c3)n2)cc1</t>
+          <t>CC(=O)Nc1cccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)n1</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -10343,16 +10337,16 @@
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2.54</v>
+        <v>0.33</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K89" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L89" t="inlineStr">
@@ -10407,7 +10401,7 @@
       </c>
       <c r="X89" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B8040&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144BA0&gt;</t>
         </is>
       </c>
       <c r="Y89" t="inlineStr">
@@ -10518,7 +10512,7 @@
       </c>
       <c r="X90" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C6182570&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146110&gt;</t>
         </is>
       </c>
       <c r="Y90" t="inlineStr">
@@ -10530,19 +10524,19 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>CHEMBL95502</t>
+          <t>CHEMBL407113</t>
         </is>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>394.5</v>
+        <v>356.41</v>
       </c>
       <c r="D91" t="n">
-        <v>4.21</v>
+        <v>2.23</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>CC1(C)CC(n2cnc(-c3ccc(F)cc3)c2-c2ccnc(N)n2)CC(C)(C)N1</t>
+          <t>NS(=O)(=O)c1cccc(-c2ccc3c(NC(=O)C4CC4)n[nH]c3c2)c1</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -10561,7 +10555,7 @@
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0.29</v>
+        <v>-0.53</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -10625,7 +10619,7 @@
       </c>
       <c r="X91" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4120&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145620&gt;</t>
         </is>
       </c>
       <c r="Y91" t="inlineStr">
@@ -10736,7 +10730,7 @@
       </c>
       <c r="X92" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6490&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144F20&gt;</t>
         </is>
       </c>
       <c r="Y92" t="inlineStr">
@@ -10847,7 +10841,7 @@
       </c>
       <c r="X93" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B60A0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291442E0&gt;</t>
         </is>
       </c>
       <c r="Y93" t="inlineStr">
@@ -10859,19 +10853,23 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>CHEMBL1785004</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr"/>
+          <t>CHEMBL512076</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>GSK-192082A</t>
+        </is>
+      </c>
       <c r="C94" t="n">
-        <v>451.45</v>
+        <v>566.0599999999999</v>
       </c>
       <c r="D94" t="n">
-        <v>5.14</v>
+        <v>5.63</v>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc(F)c(F)c3)n2)cc1</t>
+          <t>CCNC(=O)O[C@H]1CN[C@H](C#Cc2cc3ncnc(Nc4ccc(OCc5cccc(F)c5)c(Cl)c4)c3s2)C1</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
@@ -10890,7 +10888,7 @@
         </is>
       </c>
       <c r="I94" t="n">
-        <v>-3.95</v>
+        <v>1.32</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
@@ -10954,7 +10952,7 @@
       </c>
       <c r="X94" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6420&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144510&gt;</t>
         </is>
       </c>
       <c r="Y94" t="inlineStr">
@@ -10966,23 +10964,19 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>CHEMBL1909408</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>GSK-200398A</t>
-        </is>
-      </c>
+          <t>CHEMBL1785004</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>616.15</v>
+        <v>451.45</v>
       </c>
       <c r="D95" t="n">
-        <v>4.38</v>
+        <v>5.14</v>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>O=C(O[C@H]1CN[C@H](C#Cc2cc3ncnc(Nc4ccc5c(cnn5Cc5ccccc5)c4)c3s2)C1)N1CCOCC1</t>
+          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc(F)c(F)c3)n2)cc1</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
@@ -11001,7 +10995,7 @@
         </is>
       </c>
       <c r="I95" t="n">
-        <v>-1.11</v>
+        <v>-3.95</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -11065,7 +11059,7 @@
       </c>
       <c r="X95" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5540&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147AE0&gt;</t>
         </is>
       </c>
       <c r="Y95" t="inlineStr">
@@ -11077,23 +11071,23 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>CHEMBL185939</t>
+          <t>CHEMBL1909408</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>GW828525X</t>
+          <t>GSK-200398A</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>490.45</v>
+        <v>616.15</v>
       </c>
       <c r="D96" t="n">
-        <v>5.39</v>
+        <v>4.38</v>
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>FC(F)(F)c1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc4c(c3)OCCO4)n2)cc1</t>
+          <t>O=C(O[C@H]1CN[C@H](C#Cc2cc3ncnc(Nc4ccc5c(cnn5Cc5ccccc5)c4)c3s2)C1)N1CCOCC1</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
@@ -11112,16 +11106,16 @@
         </is>
       </c>
       <c r="I96" t="n">
-        <v>4.7</v>
+        <v>-1.11</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L96" t="inlineStr">
@@ -11176,7 +11170,7 @@
       </c>
       <c r="X96" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4350&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146500&gt;</t>
         </is>
       </c>
       <c r="Y96" t="inlineStr">
@@ -11188,19 +11182,23 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>CHEMBL428877</t>
-        </is>
-      </c>
-      <c r="B97" t="inlineStr"/>
+          <t>CHEMBL185939</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>GW828525X</t>
+        </is>
+      </c>
       <c r="C97" t="n">
-        <v>443.53</v>
+        <v>490.45</v>
       </c>
       <c r="D97" t="n">
-        <v>5.43</v>
+        <v>5.39</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>CCc1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
+          <t>FC(F)(F)c1ccc(-c2nn3ncccc3c2-c2ccnc(Nc3ccc4c(c3)OCCO4)n2)cc1</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
@@ -11219,16 +11217,16 @@
         </is>
       </c>
       <c r="I97" t="n">
-        <v>2.08</v>
+        <v>4.7</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L97" t="inlineStr">
@@ -11283,7 +11281,7 @@
       </c>
       <c r="X97" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5E00&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146B90&gt;</t>
         </is>
       </c>
       <c r="Y97" t="inlineStr">
@@ -11295,19 +11293,19 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>CHEMBL419903</t>
+          <t>CHEMBL428877</t>
         </is>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>295.32</v>
+        <v>443.53</v>
       </c>
       <c r="D98" t="n">
-        <v>3.72</v>
+        <v>5.43</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>O=C(Nc1n[nH]c2cc(-c3ccc(F)cc3)ccc12)C1CC1</t>
+          <t>CCc1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
@@ -11326,16 +11324,16 @@
         </is>
       </c>
       <c r="I98" t="n">
-        <v>2.49</v>
+        <v>2.08</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K98" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L98" t="inlineStr">
@@ -11390,7 +11388,7 @@
       </c>
       <c r="X98" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B58C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147680&gt;</t>
         </is>
       </c>
       <c r="Y98" t="inlineStr">
@@ -11402,23 +11400,23 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>CHEMBL381948</t>
+          <t>CHEMBL521806</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>GW680975X</t>
+          <t>GSK-237700A</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>316.34</v>
+        <v>457.94</v>
       </c>
       <c r="D99" t="n">
-        <v>4.34</v>
+        <v>5</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2cc(-c3c[nH]nc3-c3ccccn3)ccn2)cc1</t>
+          <t>COc1cc2ncn(-c3cc(O[C@@H](C)c4ccccc4Cl)c(C(N)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
@@ -11437,7 +11435,7 @@
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0.99</v>
+        <v>0.13</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
@@ -11501,7 +11499,7 @@
       </c>
       <c r="X99" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6AB0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147920&gt;</t>
         </is>
       </c>
       <c r="Y99" t="inlineStr">
@@ -11513,23 +11511,19 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>CHEMBL473420</t>
-        </is>
-      </c>
-      <c r="B100" t="inlineStr">
-        <is>
-          <t>GSK-1030058A</t>
-        </is>
-      </c>
+          <t>CHEMBL419903</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>492.48</v>
+        <v>295.32</v>
       </c>
       <c r="D100" t="n">
-        <v>5.49</v>
+        <v>3.72</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>COC(=O)c1sc(-n2cnc3cc(OC)c(OC)cc32)cc1OCc1ccccc1C(F)(F)F</t>
+          <t>O=C(Nc1n[nH]c2cc(-c3ccc(F)cc3)ccc12)C1CC1</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
@@ -11548,7 +11542,7 @@
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1.09</v>
+        <v>2.49</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -11612,7 +11606,7 @@
       </c>
       <c r="X100" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5000&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829147610&gt;</t>
         </is>
       </c>
       <c r="Y100" t="inlineStr">
@@ -11723,7 +11717,7 @@
       </c>
       <c r="X101" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146260&gt;</t>
         </is>
       </c>
       <c r="Y101" t="inlineStr">
@@ -11830,7 +11824,7 @@
       </c>
       <c r="X102" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B43C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291470D0&gt;</t>
         </is>
       </c>
       <c r="Y102" t="inlineStr">
@@ -11941,7 +11935,7 @@
       </c>
       <c r="X103" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6C70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146DC0&gt;</t>
         </is>
       </c>
       <c r="Y103" t="inlineStr">
@@ -11953,23 +11947,23 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>CHEMBL372474</t>
+          <t>CHEMBL179453</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>GW678313X</t>
+          <t>GW622055X</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>452.51</v>
+        <v>392.86</v>
       </c>
       <c r="D104" t="n">
-        <v>5.69</v>
+        <v>4.54</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(-c4ccccc4F)c3)o2)c1</t>
+          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3ccccc3Cl)o2)c1</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
@@ -11988,16 +11982,16 @@
         </is>
       </c>
       <c r="I104" t="n">
-        <v>2.37</v>
+        <v>0.29</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L104" t="inlineStr">
@@ -12052,7 +12046,7 @@
       </c>
       <c r="X104" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B6260&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291469D0&gt;</t>
         </is>
       </c>
       <c r="Y104" t="inlineStr">
@@ -12064,23 +12058,23 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>CHEMBL208437</t>
+          <t>CHEMBL372474</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>GW711782X</t>
+          <t>GW678313X</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>408.47</v>
+        <v>452.51</v>
       </c>
       <c r="D105" t="n">
-        <v>4.48</v>
+        <v>5.69</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>c1ccc(-c2n[nH]cc2-c2ccnc(-c3ccc(OCCn4ccnc4)cc3)c2)nc1</t>
+          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(-c4ccccc4F)c3)o2)c1</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -12099,16 +12093,16 @@
         </is>
       </c>
       <c r="I105" t="n">
-        <v>0.01</v>
+        <v>2.37</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L105" t="inlineStr">
@@ -12163,7 +12157,7 @@
       </c>
       <c r="X105" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4E40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829146570&gt;</t>
         </is>
       </c>
       <c r="Y105" t="inlineStr">
@@ -12175,19 +12169,23 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>CHEMBL275724</t>
-        </is>
-      </c>
-      <c r="B106" t="inlineStr"/>
+          <t>CHEMBL477583</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>GW743024X</t>
+        </is>
+      </c>
       <c r="C106" t="n">
-        <v>458.5</v>
+        <v>374.44</v>
       </c>
       <c r="D106" t="n">
-        <v>3.96</v>
+        <v>4.65</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>NC(=O)c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
+          <t>Cc1ccc(NC(=O)c2ccoc2)cc1-c1ccc(C(=O)NCC2CC2)cc1</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -12206,7 +12204,7 @@
         </is>
       </c>
       <c r="I106" t="n">
-        <v>2.32</v>
+        <v>1.05</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -12270,7 +12268,7 @@
       </c>
       <c r="X106" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5C40&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291461F0&gt;</t>
         </is>
       </c>
       <c r="Y106" t="inlineStr">
@@ -12282,23 +12280,19 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>CHEMBL1909393</t>
-        </is>
-      </c>
-      <c r="B107" t="inlineStr">
-        <is>
-          <t>GW583373A</t>
-        </is>
-      </c>
+          <t>CHEMBL275724</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>595.55</v>
+        <v>458.5</v>
       </c>
       <c r="D107" t="n">
-        <v>6.43</v>
+        <v>3.96</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>[O-][S+]1CCN(Cc2ccc(-c3ccc4ncnc(Nc5ccc(OCc6ccccc6)c(Cl)c5)c4c3)o2)CC1</t>
+          <t>NC(=O)c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
@@ -12317,16 +12311,16 @@
         </is>
       </c>
       <c r="I107" t="n">
-        <v>0.08</v>
+        <v>2.32</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K107" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L107" t="inlineStr">
@@ -12381,7 +12375,7 @@
       </c>
       <c r="X107" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B4AC0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145FC0&gt;</t>
         </is>
       </c>
       <c r="Y107" t="inlineStr">
@@ -12393,19 +12387,23 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>CHEMBL275666</t>
-        </is>
-      </c>
-      <c r="B108" t="inlineStr"/>
+          <t>CHEMBL189415</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>GW819077X</t>
+        </is>
+      </c>
       <c r="C108" t="n">
-        <v>483.47</v>
+        <v>432.41</v>
       </c>
       <c r="D108" t="n">
-        <v>5.88</v>
+        <v>5.62</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3cccc(C(F)(F)F)c3)n2)cc1</t>
+          <t>FC(F)(F)c1cccc(Nc2nccc(-c3cnn4nc(-c5ccccc5)ccc34)n2)c1</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
@@ -12424,16 +12422,16 @@
         </is>
       </c>
       <c r="I108" t="n">
-        <v>2.14</v>
+        <v>-0.41</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L108" t="inlineStr">
@@ -12488,7 +12486,7 @@
       </c>
       <c r="X108" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B5A80&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829145850&gt;</t>
         </is>
       </c>
       <c r="Y108" t="inlineStr">
@@ -12500,19 +12498,23 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>CHEMBL275168</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr"/>
+          <t>CHEMBL1909393</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>GW583373A</t>
+        </is>
+      </c>
       <c r="C109" t="n">
-        <v>449.92</v>
+        <v>595.55</v>
       </c>
       <c r="D109" t="n">
-        <v>5.52</v>
+        <v>6.43</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc(Cl)cc3)n2)cc1</t>
+          <t>[O-][S+]1CCN(Cc2ccc(-c3ccc4ncnc(Nc5ccc(OCc6ccccc6)c(Cl)c5)c4c3)o2)CC1</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
@@ -12531,7 +12533,7 @@
         </is>
       </c>
       <c r="I109" t="n">
-        <v>0.41</v>
+        <v>0.08</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
@@ -12595,7 +12597,7 @@
       </c>
       <c r="X109" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61B50E0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144A50&gt;</t>
         </is>
       </c>
       <c r="Y109" t="inlineStr">
@@ -12607,23 +12609,19 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>CHEMBL179311</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>GW580509X</t>
-        </is>
-      </c>
+          <t>CHEMBL275666</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>388.45</v>
+        <v>483.47</v>
       </c>
       <c r="D110" t="n">
-        <v>3.9</v>
+        <v>5.88</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(OC)c3)o2)c1</t>
+          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3cccc(C(F)(F)F)c3)n2)cc1</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
@@ -12642,16 +12640,16 @@
         </is>
       </c>
       <c r="I110" t="n">
-        <v>1.61</v>
+        <v>2.14</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K110" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L110" t="inlineStr">
@@ -12706,7 +12704,7 @@
       </c>
       <c r="X110" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61CA8F0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291455B0&gt;</t>
         </is>
       </c>
       <c r="Y110" t="inlineStr">
@@ -12718,19 +12716,23 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>CHEMBL103080</t>
-        </is>
-      </c>
-      <c r="B111" t="inlineStr"/>
+          <t>CHEMBL1909367</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>GW680908A</t>
+        </is>
+      </c>
       <c r="C111" t="n">
-        <v>370.43</v>
+        <v>587.9400000000001</v>
       </c>
       <c r="D111" t="n">
-        <v>2.95</v>
+        <v>5.38</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)Nc1cccc(-c2ccc3c(NC(=O)C4CC4)n[nH]c3c2)c1</t>
+          <t>COC(=O)Nc1nc2ccc(S(=O)(=O)c3ccc(NC(=O)Nc4cc(C(F)(F)F)ccc4F)cc3)cc2[nH]1</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
@@ -12749,7 +12751,7 @@
         </is>
       </c>
       <c r="I111" t="n">
-        <v>0.53</v>
+        <v>1.08</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
@@ -12813,7 +12815,7 @@
       </c>
       <c r="X111" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61C86D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144CF0&gt;</t>
         </is>
       </c>
       <c r="Y111" t="inlineStr">
@@ -12825,19 +12827,19 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>CHEMBL330422</t>
+          <t>CHEMBL13868</t>
         </is>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>396.47</v>
+        <v>507.57</v>
       </c>
       <c r="D112" t="n">
-        <v>2.82</v>
+        <v>6.66</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>CN1CCC(n2cnc(-c3ccc(F)cc3)c2-c2ccnc(NCCO)n2)CC1</t>
+          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc(Oc4ccccc4)cc3)n2)cc1</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -12856,16 +12858,16 @@
         </is>
       </c>
       <c r="I112" t="n">
-        <v>1.66</v>
+        <v>2.41</v>
       </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K112" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L112" t="inlineStr">
@@ -12920,7 +12922,7 @@
       </c>
       <c r="X112" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61C8510&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144C10&gt;</t>
         </is>
       </c>
       <c r="Y112" t="inlineStr">
@@ -12932,19 +12934,23 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>CHEMBL13868</t>
-        </is>
-      </c>
-      <c r="B113" t="inlineStr"/>
+          <t>CHEMBL1794068</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>GSK-326090A</t>
+        </is>
+      </c>
       <c r="C113" t="n">
-        <v>507.57</v>
+        <v>558.63</v>
       </c>
       <c r="D113" t="n">
-        <v>6.66</v>
+        <v>6.07</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>Fc1ccc(-c2ncn(C3CCNCC3)c2-c2ccnc(Oc3ccc(Oc4ccccc4)cc3)n2)cc1</t>
+          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OCC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1C(F)(F)F</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
@@ -12963,7 +12969,7 @@
         </is>
       </c>
       <c r="I113" t="n">
-        <v>2.41</v>
+        <v>0.89</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
@@ -13027,7 +13033,7 @@
       </c>
       <c r="X113" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61C80B0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144970&gt;</t>
         </is>
       </c>
       <c r="Y113" t="inlineStr">
@@ -13039,23 +13045,23 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>CHEMBL207247</t>
+          <t>CHEMBL471789</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>GW807930X</t>
+          <t>GSK-1030059A</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>500.96</v>
+        <v>476.48</v>
       </c>
       <c r="D114" t="n">
-        <v>5.63</v>
+        <v>5.9</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CC(=O)NCc1cccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)c1</t>
+          <t>COc1cc2ncn(-c3cc(OCc4ccccc4C(F)(F)F)c(C(C)=O)s3)c2cc1OC</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -13074,16 +13080,16 @@
         </is>
       </c>
       <c r="I114" t="n">
-        <v>0.8100000000000001</v>
+        <v>0.57</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K114" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L114" t="inlineStr">
@@ -13138,7 +13144,7 @@
       </c>
       <c r="X114" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61CB920&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144900&gt;</t>
         </is>
       </c>
       <c r="Y114" t="inlineStr">
@@ -13150,19 +13156,23 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>CHEMBL1909401</t>
-        </is>
-      </c>
-      <c r="B115" t="inlineStr"/>
+          <t>CHEMBL207410</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>GW772405X</t>
+        </is>
+      </c>
       <c r="C115" t="n">
-        <v>465.41</v>
+        <v>486.93</v>
       </c>
       <c r="D115" t="n">
-        <v>4.56</v>
+        <v>5.35</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>O=C([O-])c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
+          <t>CNC(=O)c1cccc(C#Cc2cncnc2Nc2ccc(OCc3cccc(F)c3)c(Cl)c2)c1</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -13181,16 +13191,16 @@
         </is>
       </c>
       <c r="I115" t="n">
-        <v>1.53</v>
+        <v>-0.18</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L115" t="inlineStr">
@@ -13245,7 +13255,7 @@
       </c>
       <c r="X115" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61CB0D0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144190&gt;</t>
         </is>
       </c>
       <c r="Y115" t="inlineStr">
@@ -13257,19 +13267,23 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>CHEMBL1785003</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr"/>
+          <t>CHEMBL191705</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>GW621431X</t>
+        </is>
+      </c>
       <c r="C116" t="n">
-        <v>486.55</v>
+        <v>400.46</v>
       </c>
       <c r="D116" t="n">
-        <v>4.28</v>
+        <v>4.09</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>NC(=O)CCc1ccccc1Oc1nccc(-c2c(-c3ccc(F)cc3)ncn2C2CCNCC2)n1</t>
+          <t>CCS(=O)(=O)c1ccc(OC)c(Nc2ncc(-c3cccc(C(C)=O)c3)o2)c1</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -13288,16 +13302,16 @@
         </is>
       </c>
       <c r="I116" t="n">
-        <v>-0.54</v>
+        <v>2.71</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L116" t="inlineStr">
@@ -13352,7 +13366,7 @@
       </c>
       <c r="X116" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61C8B30&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291450E0&gt;</t>
         </is>
       </c>
       <c r="Y116" t="inlineStr">
@@ -13364,23 +13378,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CHEMBL1794069</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>GSK-571989A</t>
-        </is>
-      </c>
+          <t>CHEMBL1909401</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>525.0700000000001</v>
+        <v>465.41</v>
       </c>
       <c r="D117" t="n">
-        <v>5.7</v>
+        <v>4.56</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OCC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>O=C([O-])c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -13399,7 +13409,7 @@
         </is>
       </c>
       <c r="I117" t="n">
-        <v>3.2</v>
+        <v>1.53</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
@@ -13463,7 +13473,7 @@
       </c>
       <c r="X117" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61C9E70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F8291453F0&gt;</t>
         </is>
       </c>
       <c r="Y117" t="inlineStr">
@@ -13475,19 +13485,19 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>CHEMBL417804</t>
+          <t>CHEMBL1785003</t>
         </is>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>445.5</v>
+        <v>486.55</v>
       </c>
       <c r="D118" t="n">
-        <v>4.87</v>
+        <v>4.28</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>COc1ccccc1Oc1nccc(-c2c(-c3ccc(F)cc3)ncn2C2CCNCC2)n1</t>
+          <t>NC(=O)CCc1ccccc1Oc1nccc(-c2c(-c3ccc(F)cc3)ncn2C2CCNCC2)n1</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -13506,16 +13516,16 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3.06</v>
+        <v>-0.54</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>CHEMBL1962115</t>
+          <t>CHEMBL1962114</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L118" t="inlineStr">
@@ -13570,7 +13580,7 @@
       </c>
       <c r="X118" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61CAD50&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144EB0&gt;</t>
         </is>
       </c>
       <c r="Y118" t="inlineStr">
@@ -13582,19 +13592,19 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>CHEMBL418348</t>
+          <t>CHEMBL417804</t>
         </is>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>493.56</v>
+        <v>445.5</v>
       </c>
       <c r="D119" t="n">
-        <v>4.27</v>
+        <v>4.87</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>CS(=O)(=O)c1ccc(Oc2nccc(-c3c(-c4ccc(F)cc4)ncn3C3CCNCC3)n2)cc1</t>
+          <t>COc1ccccc1Oc1nccc(-c2c(-c3ccc(F)cc3)ncn2C2CCNCC2)n1</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -13613,16 +13623,16 @@
         </is>
       </c>
       <c r="I119" t="n">
-        <v>-0.93</v>
+        <v>3.06</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>CHEMBL1962114</t>
+          <t>CHEMBL1962115</t>
         </is>
       </c>
       <c r="K119" t="inlineStr">
         <is>
-          <t>GSK_PKIS: ITK mean inhibition at 0.1 uM [Nanosyn]</t>
+          <t>GSK_PKIS: ITK mean inhibition at 1 uM [Nanosyn]</t>
         </is>
       </c>
       <c r="L119" t="inlineStr">
@@ -13677,7 +13687,7 @@
       </c>
       <c r="X119" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61CBA70&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144270&gt;</t>
         </is>
       </c>
       <c r="Y119" t="inlineStr">
@@ -13689,23 +13699,23 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>CHEMBL1794070</t>
+          <t>CHEMBL434729</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>GSK-579289A</t>
+          <t>GW829906X</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>511.05</v>
+        <v>446.44</v>
       </c>
       <c r="D120" t="n">
-        <v>5.45</v>
+        <v>5.92</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>C[C@@H](Oc1cc(-n2cnc3ccc(OC4CCN(C)CC4)cc32)sc1C(N)=O)c1ccccc1Cl</t>
+          <t>Cc1ccc2c(-c3ccnc(Nc4cccc(C(F)(F)F)c4)n3)c(-c3ccccc3)nn2n1</t>
         </is>
       </c>
       <c r="F120" t="inlineStr">
@@ -13724,7 +13734,7 @@
         </is>
       </c>
       <c r="I120" t="n">
-        <v>-1.75</v>
+        <v>1.69</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
@@ -13788,7 +13798,7 @@
       </c>
       <c r="X120" t="inlineStr">
         <is>
-          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x00000250C61C83C0&gt;</t>
+          <t>&lt;rdkit.DataStructs.cDataStructs.ExplicitBitVect object at 0x000001F829144580&gt;</t>
         </is>
       </c>
       <c r="Y120" t="inlineStr">
